--- a/02.01/ЛР2/ЛР1.xlsx
+++ b/02.01/ЛР2/ЛР1.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Степень белый ящик" sheetId="1" r:id="rId1"/>
-    <sheet name="Пароль белый ящик" sheetId="2" r:id="rId2"/>
-    <sheet name="Пароль черный ящик" sheetId="5" r:id="rId3"/>
+    <sheet name="1 Степень" sheetId="6" r:id="rId1"/>
+    <sheet name="1 Пароль" sheetId="7" r:id="rId2"/>
+    <sheet name="2 Степень белый ящик" sheetId="1" r:id="rId3"/>
+    <sheet name="2 Пароль белый ящик" sheetId="2" r:id="rId4"/>
+    <sheet name="3 Пароль черный ящик" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="56">
   <si>
     <t>№</t>
   </si>
@@ -152,17 +154,72 @@
     <t>Полученный результат</t>
   </si>
   <si>
-    <t>Исключение: Неопределённое выражение: 0^0</t>
-  </si>
-  <si>
-    <t>Исключение: Неопределённое выражение: 0^(-n)</t>
+    <t>Действие</t>
+  </si>
+  <si>
+    <t>Логин:  Loginuser112
+Пароль: Passwo1!
+Подтверждение пароля: Passwo1!
+Email: example@mail.com</t>
+  </si>
+  <si>
+    <t>Данные для тестирования</t>
+  </si>
+  <si>
+    <t>1. Ввод данных для тестирования
+2. Нажатие кнопки войти</t>
+  </si>
+  <si>
+    <t>Логин:  Loginuser112
+Пароль: PASS123!
+Подтверждение пароля: PASS123!
+Email: example@mail.com</t>
+  </si>
+  <si>
+    <t>Появление всплывающего уведомления "Введите корректный пароль"</t>
+  </si>
+  <si>
+    <t>Логин:  Loginuser112
+Пароль: pass123!
+Подтверждение пароля: pass123!
+Email: example@mail.com</t>
+  </si>
+  <si>
+    <t>Логин:  Loginuser112
+Пароль: Abc123!
+Подтверждение пароля: Abc123!
+Email: example@mail.com</t>
+  </si>
+  <si>
+    <t>Логин:  Loginuser112
+Пароль: Abcdefghijklmnopqrs!uvwxyz12345
+Подтверждение пароля: Abcdefghijklmnopqrs!uvwxyz12345
+Email: example@mail.com</t>
+  </si>
+  <si>
+    <t>Логин:  Loginuser112
+Пароль: Passwor!
+Подтверждение пароля: Passwor!
+Email: example@mail.com</t>
+  </si>
+  <si>
+    <t>Логин:  Loginuser112
+Пароль: Passwor1
+Подтверждение пароля: Passwor1
+Email: example@mail.com</t>
+  </si>
+  <si>
+    <t>Появление всплывающего уведомления "Успешная регистрация"</t>
+  </si>
+  <si>
+    <t>Совпало с ожидаемым</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +372,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -509,7 +574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -639,6 +704,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -684,7 +786,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -708,6 +810,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1030,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,11 +1161,10 @@
     <col min="1" max="1" width="3.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1055,14 +1174,11 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1072,14 +1188,11 @@
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1089,14 +1202,11 @@
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1106,14 +1216,11 @@
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1123,14 +1230,11 @@
       <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1140,14 +1244,11 @@
       <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1157,14 +1258,11 @@
       <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1174,14 +1272,11 @@
       <c r="C8" s="6">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="D8" s="6">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1191,10 +1286,7 @@
       <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1207,15 +1299,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="112.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1247,7 +1340,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>40</v>
@@ -1264,7 +1357,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>38</v>
@@ -1281,7 +1374,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>39</v>
@@ -1298,7 +1391,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>22</v>
@@ -1315,7 +1408,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>21</v>
@@ -1332,7 +1425,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -1349,7 +1442,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
@@ -1362,157 +1455,445 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="112.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="6">
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="68.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="F3:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/02.01/ЛР2/ЛР1.xlsx
+++ b/02.01/ЛР2/ЛР1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\ispp21\02.01\ЛР2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\Projects\0109\02.01\ЛР2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DEDCF6-8CB5-41EA-A424-935E0AA19145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Степень" sheetId="6" r:id="rId1"/>
@@ -17,13 +18,14 @@
     <sheet name="2 Степень белый ящик" sheetId="1" r:id="rId3"/>
     <sheet name="2 Пароль белый ящик" sheetId="2" r:id="rId4"/>
     <sheet name="3 Пароль черный ящик" sheetId="5" r:id="rId5"/>
+    <sheet name="5 Задачи" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="121">
   <si>
     <t>№</t>
   </si>
@@ -157,69 +159,545 @@
     <t>Действие</t>
   </si>
   <si>
-    <t>Логин:  Loginuser112
-Пароль: Passwo1!
-Подтверждение пароля: Passwo1!
-Email: example@mail.com</t>
-  </si>
-  <si>
-    <t>Данные для тестирования</t>
-  </si>
-  <si>
-    <t>1. Ввод данных для тестирования
-2. Нажатие кнопки войти</t>
-  </si>
-  <si>
-    <t>Логин:  Loginuser112
-Пароль: PASS123!
-Подтверждение пароля: PASS123!
-Email: example@mail.com</t>
-  </si>
-  <si>
-    <t>Появление всплывающего уведомления "Введите корректный пароль"</t>
-  </si>
-  <si>
-    <t>Логин:  Loginuser112
-Пароль: pass123!
-Подтверждение пароля: pass123!
-Email: example@mail.com</t>
-  </si>
-  <si>
-    <t>Логин:  Loginuser112
-Пароль: Abc123!
-Подтверждение пароля: Abc123!
-Email: example@mail.com</t>
-  </si>
-  <si>
-    <t>Логин:  Loginuser112
-Пароль: Abcdefghijklmnopqrs!uvwxyz12345
-Подтверждение пароля: Abcdefghijklmnopqrs!uvwxyz12345
-Email: example@mail.com</t>
-  </si>
-  <si>
-    <t>Логин:  Loginuser112
-Пароль: Passwor!
-Подтверждение пароля: Passwor!
-Email: example@mail.com</t>
-  </si>
-  <si>
-    <t>Логин:  Loginuser112
-Пароль: Passwor1
-Подтверждение пароля: Passwor1
-Email: example@mail.com</t>
-  </si>
-  <si>
-    <t>Появление всплывающего уведомления "Успешная регистрация"</t>
-  </si>
-  <si>
     <t>Совпало с ожидаемым</t>
+  </si>
+  <si>
+    <t>1.  Нажать кнопку "Зарегистрироваться"</t>
+  </si>
+  <si>
+    <t>1. Ввести логин:  Loginuser112
+2. Ввести пароль: Passwo1!
+3. Ввести подтверждение пароля: Passwo1!
+4. Ввести email: example@mail.com
+5. Нажать кнопку "Зарегистрироваться"</t>
+  </si>
+  <si>
+    <t>1. Ввести логин:  Loginuser112
+2. Ввести пароль: PASS123!
+3. Ввести подтверждение пароля: PASS123!
+4. Ввести email: example@mail.com
+5. Нажать кнопку "Зарегистрироваться"</t>
+  </si>
+  <si>
+    <t>1. Ввести логин:  Loginuser112
+2. Ввести пароль:  pass123!
+3. Ввести подтверждение пароля: pass123!
+4. Ввести email: example@mail.com
+5. Нажать кнопку "Зарегистрироваться"</t>
+  </si>
+  <si>
+    <t>1. Ввести логин:  Loginuser112
+2. Ввести пароль: Abc123!
+3. Ввести подтверждение пароля: Abc123!
+4. Ввести email: example@mail.com
+5. Нажать кнопку "Зарегистрироваться"</t>
+  </si>
+  <si>
+    <t>1. Ввести логин:  Loginuser112
+2. Ввести пароль: Abcdefghijklmnopqrs!uvwxyz12345
+3. Ввести подтверждение пароля: Abcdefghijklmnopqrs!uvwxyz12345
+4. Ввести email: example@mail.com
+5. Нажать кнопку "Зарегистрироваться"</t>
+  </si>
+  <si>
+    <t>1. Ввести логин:  Loginuser112
+2. Ввести пароль: Passwor!
+3. Ввести подтверждение пароля: Passwor!
+4. Ввести email: example@mail.com
+5. Нажать кнопку "Зарегистрироваться"</t>
+  </si>
+  <si>
+    <t>1. Ввести логин:  Loginuser112
+2. Ввести пароль: Passwor1
+3. Ввести подтверждение пароля: Passwor1
+4. Ввести email: example@mail.com
+5. Нажать кнопку "Зарегистрироваться"</t>
+  </si>
+  <si>
+    <t>Появление всплывающего окна «Успех» с текстом «Вы успешно зарегистрированы!»</t>
+  </si>
+  <si>
+    <t>Появление всплывающего окна "Ошибка регистрации"
+в котором присутствует строка "Введите корректный пароль"</t>
+  </si>
+  <si>
+    <t>Появление всплывающего окна "Ошибка регистрации"
+в котором присутствует строка "Пароли не совпадают"</t>
+  </si>
+  <si>
+    <t>Появление всплывающего окна "Ошибка регистрации"
+в котором присутствует строка "Введите корректный Email"</t>
+  </si>
+  <si>
+    <t>Появление всплывающего окна "Ошибка регистрации"
+в котором присутствуют строки "Введите логин", "Введите пароль", "Введите подтверждение пароля", "Введите email"</t>
+  </si>
+  <si>
+    <t>1. Ввести логин:  Loginuser112
+2. Ввести пароль: Passwo1!
+3. Ввести подтверждение пароля: Passwo2!
+4. Ввести email: example@mail.com
+5. Нажать кнопку "Зарегистрироваться"</t>
+  </si>
+  <si>
+    <t>1. Ввести логин:  Loginuser112
+2. Ввести пароль: Passwo1!
+3. Ввести подтверждение пароля: Passwo1!
+4. Ввести email: 12345675432
+5. Нажать кнопку "Зарегистрироваться"</t>
+  </si>
+  <si>
+    <t>Приоритет</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Предусловия</t>
+  </si>
+  <si>
+    <t>Тестовые данные</t>
+  </si>
+  <si>
+    <t>Шаги</t>
+  </si>
+  <si>
+    <t>Статус прохождения
+Passed or Failed</t>
+  </si>
+  <si>
+    <t>Link to bug report (Link of defect)</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>HTTP Status: 200 OK</t>
+  </si>
+  <si>
+    <t>Проверить тело ответа от сервера</t>
+  </si>
+  <si>
+    <t>Проверить структуру ответа</t>
+  </si>
+  <si>
+    <t>Проверить заголовки ответа</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Высокий</t>
+  </si>
+  <si>
+    <t>Получить список всех задач (Вызов метода GET)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить код состояния </t>
+  </si>
+  <si>
+    <t>Запрос успешно отправлен на сервер.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content-type: application/json; charset=utf-8 
+date:
+server: Kestrel </t>
+  </si>
+  <si>
+    <t>Перед проверкой может ли метод получить информацию о задачах необходимо чтоб в файле tasks.json был список задач.
+Список задач:
+[
+  {
+    "id": 1,
+    "title": "Title1",
+    "description": "Description1",
+    "priority": 0,
+    "status": true
+  },
+  {
+    "id": 2,
+    "title": "Title2",
+    "description": "Description2",
+    "priority": 1,
+    "status": false
+  },
+  {
+    "id": 3,
+    "title": "Title3",
+    "description": "Description3",
+    "priority": 2,
+    "status": true
+  }
+]</t>
+  </si>
+  <si>
+    <t>Получить информацию о конкретной задаче по Id (Вызов метода GET)</t>
+  </si>
+  <si>
+    <t>Перед проверкой может ли метод получить информацию о конкретной задаче по Id необходимо чтоб в файле tasks.json была задача.
+Список задач:
+[
+  {
+    "id": 1,
+    "title": "Title1",
+    "description": "Description1",
+    "priority": 0,
+    "status": true
+  },
+]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Параметры пути 
+id: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Получен список задач, в сответствии с задачами добавленными в постусловии. Тело ответа в формате JSON возвращается от сервера и будет иметь следующий вид:
+[
+  {
+    "id": 1,
+    "title": "Title1",
+    "description": "Description1",
+    "priority": 0,
+    "status": true
+  },
+  {
+    "id": 2,
+    "title": "Title2",
+    "description": "Description2",
+    "priority": 1,
+    "status": false
+  },
+  {
+    "id": 3,
+    "title": "Title3",
+    "description": "Description3",
+    "priority": 2,
+    "status": true
+  }
+]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Схема JSON отображена корректно
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>имена и типы полей соответствуют ожидаемым:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{
+    "id": 1,
+    "title": "Title1",
+    "description": "Description1",
+    "priority": 0,
+    "status": true
+ }</t>
+    </r>
+  </si>
+  <si>
+    <t>Получена задача, в сответствии с добавленной задачей  в постусловии и переданным id в параметрах. Тело ответа в формате JSON с полем возвращается от сервера и  имеет следующий вид:
+{
+  "id": 1,
+  "title": "Title1",
+  "description": "Description1",
+  "priority": 0,
+  "status": true
+}</t>
+  </si>
+  <si>
+    <t>Позитивные сценарии</t>
+  </si>
+  <si>
+    <t>Негативные сценарии</t>
+  </si>
+  <si>
+    <t>Средний</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Получить информацию о конкретной задаче по Id (Вызов метода GET)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>- Попытка получить задачу по неправильно введенном Id</t>
+    </r>
+  </si>
+  <si>
+    <t>Отправить GET запрос
+https://localhost:7215/api/tasks</t>
+  </si>
+  <si>
+    <t>Отправить GET запрос
+https://localhost:7215/api/tasks/{id}</t>
+  </si>
+  <si>
+    <t>Параметры пути 
+id: q</t>
+  </si>
+  <si>
+    <t>HTTP Status:  400 Bad Request
+Код состояния HTTP соответствует типу ошибки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тело ответа в формате JSON будет иметь следующий вид:
+{
+    "type": "https://tools.ietf.org/html/rfc9110#section-15.5.1",
+    "title": "One or more validation errors occurred.",
+    "status": 400,
+    "errors": {
+        "id": [
+            "The value 'q' is not valid."
+        ]
+    },
+    "traceId": "00-fa1faa37540ddaa7dc3014a3f46ee038-47a77064e1aa469d-00"
+}
+описание ошибки правильное для данного типа ошибки </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Получить информацию о конкретной задаче по Id (Вызов метода GET)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>- Попытка получить задачу по несуществующему Id</t>
+    </r>
+  </si>
+  <si>
+    <t>Параметры пути 
+id: 200</t>
+  </si>
+  <si>
+    <t>В файле tests.json не должно присутствовать записи в id: 200</t>
+  </si>
+  <si>
+    <t>HTTP Status:  404 Not Found
+Код состояния HTTP соответствует типу ошибки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тело ответа в формате TEXT будет иметь следующий вид:
+Тело: 
+Задача не найдена.
+описание ошибки правильное для данного типа ошибки </t>
+  </si>
+  <si>
+    <t>Создание новой задачи (Вызов метода POST)</t>
+  </si>
+  <si>
+    <t>Отправить POST запрос
+https://localhost:7215/api/tasks/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Параметры в случае POST передаются в теле запроса в JSON объекте. 
+1) title = Тестовое название
+2) description = Тестовое описание 
+3) priority = 1
+4) status = true
+Тело запроса: 
+{
+  "id": 0,
+  "title": "Тестовое название",
+  "description": "Тестовое описание",
+  "priority": 1,
+  "status": true
+}  </t>
+  </si>
+  <si>
+    <t>HTTP Status: 201 Created</t>
+  </si>
+  <si>
+    <t>Новая задача добавлена в магазин
+Тело ответа в формате JSON (сформированный объект JSON) возвращается от сервера и будет иметь следующий вид:
+{
+  "id": ,
+  "title": "Тестовое название",
+  "description": "Тестовое описание",
+  "priority": 1,
+  "status": true
+}
+Каждое поле JSON объекта соответствует аргументу метода сервиса</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Схема JSON отображена корректно
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>имена и типы полей соответствуют ожидаемым:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{
+  "id": ,
+  "title": "Тестовое название",
+  "description": "Тестовое описание",
+  "priority": 1,
+  "status": true
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Редактирование сущестующей задачи (Вызов метода PUT)</t>
+  </si>
+  <si>
+    <t>Перед проверкой может ли метод редактировать информацию о конкретной задаче по Id необходимо чтоб в файле tasks.json была задача.
+Список задач:
+[
+  {
+    "id": 1,
+    "title": "Title1",
+    "description": "Description1",
+    "priority": 0,
+    "status": true
+  },
+]</t>
+  </si>
+  <si>
+    <t>Заменить status = false
+Тело запроса: 
+[
+  {
+    "id": 1,
+    "title": "Title1",
+    "description": "Description1",
+    "priority": 0,
+    "status": false
+  },
+]</t>
+  </si>
+  <si>
+    <t>Отправить PUT запрос
+https://localhost:7215/api/tasks/{id}</t>
+  </si>
+  <si>
+    <t>Тело ответа в формате JSON возвращается от сервера и будет иметь следующий вид:
+[
+  {
+    "id": 1,
+    "title": "Title1",
+    "description": "Description1",
+    "priority": 0,
+    "status": false
+  },
+]
+Изменен статус питомца на "Не выполненна" -   "status": "false"</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Удаление сущестующей задачи (Вызов метода DELETE)</t>
+  </si>
+  <si>
+    <t>Перед проверкой может ли метод удалить информацию о конкретной задаче по Id необходимо чтоб в файле tasks.json была задача.
+Список задач:
+[
+  {
+    "id": 1,
+    "title": "Title1",
+    "description": "Description1",
+    "priority": 0,
+    "status": true
+  },
+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Параметры пути:
+id = 1
+</t>
+  </si>
+  <si>
+    <t>Отправить DELETE запрос
+https://localhost:7215/api/tasks/{id}</t>
+  </si>
+  <si>
+    <t>HTTP Status: 204 No Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> date: 
+ server: Kestrel </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,15 +851,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,8 +1074,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -711,6 +1224,24 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -721,6 +1252,144 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -729,14 +1398,64 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -786,7 +1505,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -817,17 +1536,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1149,7 +1979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1296,7 +2126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1340,7 +2170,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>40</v>
@@ -1357,7 +2187,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>38</v>
@@ -1374,7 +2204,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>39</v>
@@ -1391,7 +2221,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>22</v>
@@ -1408,7 +2238,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>21</v>
@@ -1425,7 +2255,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -1442,7 +2272,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
@@ -1454,7 +2284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1494,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1508,7 +2338,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1522,7 +2352,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1536,7 +2366,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1550,7 +2380,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1564,7 +2394,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,7 +2408,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1592,7 +2422,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1601,7 +2431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -1640,7 +2470,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1654,7 +2484,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1668,7 +2498,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1682,7 +2512,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1696,7 +2526,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1710,7 +2540,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1724,7 +2554,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1733,166 +2563,908 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="5">
-        <v>5</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="5">
-        <v>6</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="5">
-        <v>7</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+        <v>52</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="F3:F8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CB57C8-7BEC-40FD-992E-CC2827F666B3}">
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="54.28515625" customWidth="1"/>
+    <col min="7" max="7" width="64" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="3" spans="1:10" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="40"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="34"/>
+    </row>
+    <row r="26" spans="1:10" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="17"/>
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30" spans="1:10" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="19"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A26:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/02.01/ЛР2/ЛР1.xlsx
+++ b/02.01/ЛР2/ЛР1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\Projects\0109\02.01\ЛР2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\ispp21\0109\02.01\ЛР2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DEDCF6-8CB5-41EA-A424-935E0AA19145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1 Степень" sheetId="6" r:id="rId1"/>
@@ -564,18 +563,6 @@
     <t>HTTP Status: 201 Created</t>
   </si>
   <si>
-    <t>Новая задача добавлена в магазин
-Тело ответа в формате JSON (сформированный объект JSON) возвращается от сервера и будет иметь следующий вид:
-{
-  "id": ,
-  "title": "Тестовое название",
-  "description": "Тестовое описание",
-  "priority": 1,
-  "status": true
-}
-Каждое поле JSON объекта соответствует аргументу метода сервиса</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Схема JSON отображена корректно
 </t>
@@ -692,11 +679,23 @@
     <t xml:space="preserve"> date: 
  server: Kestrel </t>
   </si>
+  <si>
+    <t>Новая задача добавлена
+Тело ответа в формате JSON (сформированный объект JSON) возвращается от сервера и будет иметь следующий вид:
+{
+  "id": ,
+  "title": "Тестовое название",
+  "description": "Тестовое описание",
+  "priority": 1,
+  "status": true
+}
+Каждое поле JSON объекта соответствует аргументу метода сервиса</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1560,6 +1559,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="34" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1578,24 +1649,6 @@
     <xf numFmtId="0" fontId="19" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1603,60 +1656,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1979,7 +1978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2126,7 +2125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2284,7 +2283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2431,7 +2430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -2563,11 +2562,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,13 +2737,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CB57C8-7BEC-40FD-992E-CC2827F666B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,7 +2760,7 @@
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2794,33 +2793,33 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="44"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="14" t="s">
         <v>93</v>
       </c>
@@ -2834,11 +2833,11 @@
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="45"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="13" t="s">
         <v>79</v>
       </c>
@@ -2852,11 +2851,11 @@
       <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="45"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="13" t="s">
         <v>70</v>
       </c>
@@ -2870,11 +2869,11 @@
       <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="45"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="13" t="s">
         <v>71</v>
       </c>
@@ -2888,11 +2887,11 @@
       <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="46"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="17" t="s">
         <v>72</v>
       </c>
@@ -2906,19 +2905,19 @@
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="29" t="s">
         <v>85</v>
       </c>
       <c r="F8" s="14" t="s">
@@ -2934,11 +2933,11 @@
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="45"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="13" t="s">
         <v>79</v>
       </c>
@@ -2952,11 +2951,11 @@
       <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="45"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="13" t="s">
         <v>70</v>
       </c>
@@ -2970,11 +2969,11 @@
       <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="45"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="13" t="s">
         <v>71</v>
       </c>
@@ -2988,11 +2987,11 @@
       <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="46"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="17" t="s">
         <v>72</v>
       </c>
@@ -3006,17 +3005,17 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="44" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="29" t="s">
         <v>105</v>
       </c>
       <c r="F13" s="14" t="s">
@@ -3032,11 +3031,11 @@
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="45"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="13" t="s">
         <v>79</v>
       </c>
@@ -3050,16 +3049,16 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="45"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="13" t="s">
         <v>70</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>68</v>
@@ -3068,16 +3067,16 @@
       <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="45"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="13" t="s">
         <v>71</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>68</v>
@@ -3086,11 +3085,11 @@
       <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="46"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="17" t="s">
         <v>72</v>
       </c>
@@ -3104,23 +3103,23 @@
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="E18" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="F18" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>80</v>
@@ -3132,11 +3131,11 @@
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="13" t="s">
         <v>79</v>
       </c>
@@ -3150,16 +3149,16 @@
       <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="13" t="s">
         <v>70</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>68</v>
@@ -3168,11 +3167,11 @@
       <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="17" t="s">
         <v>72</v>
       </c>
@@ -3186,23 +3185,23 @@
       <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="26" t="s">
+      <c r="D22" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="E22" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="F22" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>118</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>80</v>
@@ -3214,16 +3213,16 @@
       <c r="J22" s="15"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="13" t="s">
         <v>79</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>68</v>
@@ -3231,17 +3230,17 @@
       <c r="I23" s="13"/>
       <c r="J23" s="16"/>
     </row>
-    <row r="24" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
+    <row r="24" spans="1:10" ht="202.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="46"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="17" t="s">
         <v>72</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>68</v>
@@ -3250,31 +3249,31 @@
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="34"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
     </row>
     <row r="26" spans="1:10" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26" t="s">
+      <c r="D26" s="35"/>
+      <c r="E26" s="35" t="s">
         <v>95</v>
       </c>
       <c r="F26" s="14" t="s">
@@ -3290,11 +3289,11 @@
       <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="13" t="s">
         <v>79</v>
       </c>
@@ -3308,11 +3307,11 @@
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" ht="210" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="13" t="s">
         <v>70</v>
       </c>
@@ -3326,11 +3325,11 @@
       <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
       <c r="F29" s="17" t="s">
         <v>72</v>
       </c>
@@ -3344,19 +3343,19 @@
       <c r="J29" s="19"/>
     </row>
     <row r="30" spans="1:10" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="35" t="s">
         <v>99</v>
       </c>
       <c r="F30" s="14" t="s">
@@ -3372,11 +3371,11 @@
       <c r="J30" s="15"/>
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
       <c r="F31" s="13" t="s">
         <v>79</v>
       </c>
@@ -3390,11 +3389,11 @@
       <c r="J31" s="16"/>
     </row>
     <row r="32" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="13" t="s">
         <v>70</v>
       </c>
@@ -3408,11 +3407,11 @@
       <c r="J32" s="16"/>
     </row>
     <row r="33" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
       <c r="F33" s="17" t="s">
         <v>72</v>
       </c>
@@ -3428,31 +3427,6 @@
     <row r="34" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="D13:D17"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:C33"/>
@@ -3465,6 +3439,31 @@
     <mergeCell ref="A25:J25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
